--- a/autotest1st/jgg/order/testcases/Order.xlsx
+++ b/autotest1st/jgg/order/testcases/Order.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21B3F8F-1C61-498F-B25E-2B1FD1897439}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AB2C9CFF-7E72-4F69-8B5B-6323C7FAF3F1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="555" windowWidth="18525" windowHeight="10605" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,8 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:E17"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1167,7 +1168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
@@ -1623,7 +1624,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{724ED484-4AB4-40FE-A901-871E6B787ACE}">
           <x14:formula1>
-            <xm:f>[channel.xlsx]Actions!#REF!</xm:f>
+            <xm:f>'\Users\Administrator\git\qyt\autotest1st\jgg\res\testcases\[channel.xlsx]Actions'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C17</xm:sqref>
         </x14:dataValidation>
@@ -1643,8 +1644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8114C57-6B8C-48B6-B75A-E711493443BC}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2099,7 +2100,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1CBB1802-F407-4A10-BC01-3384C5AA08BA}">
           <x14:formula1>
-            <xm:f>[channel.xlsx]Actions!#REF!</xm:f>
+            <xm:f>'\Users\Administrator\git\qyt\autotest1st\jgg\res\testcases\[channel.xlsx]Actions'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C17</xm:sqref>
         </x14:dataValidation>
